--- a/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T14:25:21+00:00</t>
+    <t>2025-07-15T14:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T14:37:44+00:00</t>
+    <t>2025-07-15T15:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T15:27:28+00:00</t>
+    <t>2025-07-17T07:34:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T07:34:21+00:00</t>
+    <t>2025-07-18T15:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T15:58:54+00:00</t>
+    <t>2025-07-21T07:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
+++ b/nr-add-poso-logical-model/ig/ValueSet-fr-medication-reconciliation-resolution.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T07:18:37+00:00</t>
+    <t>2025-07-21T07:29:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
